--- a/evaluation/results/hybrid/pca/isolation_forest/split_3/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/hybrid/pca/isolation_forest/split_3/test_95_5/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.902135231316726</v>
+        <v>0.1209964412811388</v>
       </c>
       <c r="C2">
+        <v>0.05363984674329502</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0.1018181818181818</v>
+      </c>
+      <c r="F2">
+        <v>0.2208201892744479</v>
+      </c>
+      <c r="G2">
+        <v>0.5957446808510638</v>
+      </c>
+      <c r="H2">
+        <v>0.7077314071696094</v>
+      </c>
+      <c r="I2">
+        <v>28</v>
+      </c>
+      <c r="J2">
+        <v>494</v>
+      </c>
+      <c r="K2">
+        <v>40</v>
+      </c>
+      <c r="L2">
         <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0.4747191011235955</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>27</v>
-      </c>
-      <c r="K2">
-        <v>507</v>
-      </c>
-      <c r="L2">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.9476635514018692</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0.949438202247191</v>
+        <v>0.0749063670411985</v>
       </c>
       <c r="D2">
-        <v>0.9485500467726847</v>
+        <v>0.1393728222996516</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.05363984674329502</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.1018181818181818</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.902135231316726</v>
+        <v>0.1209964412811388</v>
       </c>
       <c r="C4">
-        <v>0.902135231316726</v>
+        <v>0.1209964412811388</v>
       </c>
       <c r="D4">
-        <v>0.902135231316726</v>
+        <v>0.1209964412811388</v>
       </c>
       <c r="E4">
-        <v>0.902135231316726</v>
+        <v>0.1209964412811388</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.4738317757009346</v>
+        <v>0.5268199233716475</v>
       </c>
       <c r="C5">
-        <v>0.4747191011235955</v>
+        <v>0.5374531835205992</v>
       </c>
       <c r="D5">
-        <v>0.4742750233863424</v>
+        <v>0.1205955020589167</v>
       </c>
       <c r="E5">
         <v>562</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.9004489972394986</v>
+        <v>0.9528503838235093</v>
       </c>
       <c r="C6">
-        <v>0.902135231316726</v>
+        <v>0.1209964412811388</v>
       </c>
       <c r="D6">
-        <v>0.9012913255811631</v>
+        <v>0.1375017725959485</v>
       </c>
       <c r="E6">
         <v>562</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>507</v>
+        <v>40</v>
       </c>
       <c r="C2">
-        <v>27</v>
+        <v>494</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
         <v>28</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
